--- a/biology/Botanique/Orthophytum_vagans/Orthophytum_vagans.xlsx
+++ b/biology/Botanique/Orthophytum_vagans/Orthophytum_vagans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orthophytum vagans est une espèce de plante du genre Orthophytum.
 Cette broméliacée est endémique de la Forêt atlantique (Mata Atlantica Brasileira)  dans l'État d'Espírito Santo, situé dans le sud-est du Brésil.
@@ -512,7 +524,9 @@
           <t>Cultivars</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Orthophytum 'Blaze'
 Orthophytum 'Copper Penny'
